--- a/results/Table 1_formatted.xlsx
+++ b/results/Table 1_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/psid-rs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C429E-F3CE-8547-A5FD-5A6B014D089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C83AF3-C000-4540-B8A1-ABF92041373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="500" windowWidth="22760" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,25 +721,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -1071,7 +1053,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,6 +1490,10 @@
       </c>
       <c r="D31" s="5">
         <v>25111</v>
+      </c>
+      <c r="F31" s="2">
+        <f>C31/SUM(C31,D31)</f>
+        <v>0.23730409427773053</v>
       </c>
       <c r="G31" s="2">
         <f>C31/SUM(C31,B31,D31)</f>
@@ -2293,7 +2279,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G33">
-    <sortCondition sortBy="fontColor" ref="A30:A33" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="A30:A33" dxfId="0"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/results/Table 1_formatted.xlsx
+++ b/results/Table 1_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/psid-rs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C83AF3-C000-4540-B8A1-ABF92041373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62960E-C8E8-F74E-89E5-54B968097B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="500" windowWidth="22760" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="22760" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -754,9 +754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -794,7 +794,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -900,7 +900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1042,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
